--- a/medicine/Mort/Vanth/Vanth.xlsx
+++ b/medicine/Mort/Vanth/Vanth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la mythologie étrusque, Vanth est une déesse chtonienne et messagère de mort qui habite le monde souterrain[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la mythologie étrusque, Vanth est une déesse chtonienne et messagère de mort qui habite le monde souterrain.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Représentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son iconographie la montre ailée, vêtue d'un court chiton dont les bretelles sont croisées à la hauteur de la poitrine, laissant les seins découverts.
 Parfois sa chevelure est constituée d'un nid de serpents rassemblés par un diadème.
@@ -520,7 +534,7 @@
 Par la suite elle représenta progressivement la justice.
 Dans l'art, elle est représentée avec des serpents des torches et des clés et accompagne fréquemment le dieu Charun.
 Elle correspond à la déesse  Moïra de la mythologie grecque.
-Contrairement aux affirmations rapportées dans divers livres publiés par des non-spécialistes, Vanth n'est pas un démon féminin violent et n'a rien à voir avec la torture des âmes[2].
+Contrairement aux affirmations rapportées dans divers livres publiés par des non-spécialistes, Vanth n'est pas un démon féminin violent et n'a rien à voir avec la torture des âmes.
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Astronomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En astronomie du système solaire, Vanth est le  satellite d'Orcus (objet de la ceinture de Kuiper). Ce nom a été proposé en avril 2009 par son découvreur, Mike Brown, après avoir consulté les internautes sur le choix d'un nom[3]. L'Union astronomique internationale a validé cette proposition en mars 2010. Vanth orbite à environ 9 000 km d'Orcus et son diamètre, encore mal connu, pourrait faire du couple Orcus-Vanth le second système double connu dans cette région après Pluton-Charon.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En astronomie du système solaire, Vanth est le  satellite d'Orcus (objet de la ceinture de Kuiper). Ce nom a été proposé en avril 2009 par son découvreur, Mike Brown, après avoir consulté les internautes sur le choix d'un nom. L'Union astronomique internationale a validé cette proposition en mars 2010. Vanth orbite à environ 9 000 km d'Orcus et son diamètre, encore mal connu, pourrait faire du couple Orcus-Vanth le second système double connu dans cette région après Pluton-Charon.
 </t>
         </is>
       </c>
